--- a/Ключи.xlsx
+++ b/Ключи.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист5!$A$1:$A$849</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6973" uniqueCount="2603">
   <si>
     <t>окна,пластик</t>
   </si>
@@ -7830,12 +7830,6 @@
   </si>
   <si>
     <t>Певческий голос.</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>Как открыть свой автосервис.</t>
@@ -8704,12 +8698,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2" filterMode="1"/>
-  <dimension ref="A1:H849"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:F849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B857" sqref="B857"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8721,7 +8715,7 @@
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1862</v>
       </c>
@@ -8741,7 +8735,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1857</v>
       </c>
@@ -8751,14 +8745,8 @@
       <c r="C2" t="s">
         <v>1857</v>
       </c>
-      <c r="G2" t="s">
-        <v>2601</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>713</v>
       </c>
@@ -8769,7 +8757,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1803</v>
       </c>
@@ -8780,7 +8768,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -8791,7 +8779,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>781</v>
       </c>
@@ -8802,7 +8790,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1227</v>
       </c>
@@ -8813,7 +8801,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1188</v>
       </c>
@@ -8824,7 +8812,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1870</v>
       </c>
@@ -8844,7 +8832,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>413</v>
       </c>
@@ -8855,7 +8843,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1146</v>
       </c>
@@ -8866,7 +8854,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>583</v>
       </c>
@@ -8877,7 +8865,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>557</v>
       </c>
@@ -8888,7 +8876,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1743</v>
       </c>
@@ -8899,7 +8887,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1676</v>
       </c>
@@ -8910,7 +8898,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1089</v>
       </c>
@@ -8921,7 +8909,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -8932,7 +8920,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1279</v>
       </c>
@@ -8943,7 +8931,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>392</v>
       </c>
@@ -8954,7 +8942,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1698</v>
       </c>
@@ -8965,7 +8953,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>679</v>
       </c>
@@ -8976,7 +8964,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1659</v>
       </c>
@@ -8987,7 +8975,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1920</v>
       </c>
@@ -8998,7 +8986,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1916</v>
       </c>
@@ -9009,7 +8997,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1918</v>
       </c>
@@ -9020,7 +9008,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1922</v>
       </c>
@@ -9031,7 +9019,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>544</v>
       </c>
@@ -9042,7 +9030,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1810</v>
       </c>
@@ -9062,7 +9050,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>518</v>
       </c>
@@ -9073,7 +9061,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1893</v>
       </c>
@@ -9084,7 +9072,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1109</v>
       </c>
@@ -9095,7 +9083,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>390</v>
       </c>
@@ -9106,7 +9094,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1041</v>
       </c>
@@ -9117,7 +9105,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1905</v>
       </c>
@@ -9128,7 +9116,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1908</v>
       </c>
@@ -9139,7 +9127,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -9150,7 +9138,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>832</v>
       </c>
@@ -9161,7 +9149,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>496</v>
       </c>
@@ -9172,7 +9160,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1809</v>
       </c>
@@ -9192,7 +9180,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>931</v>
       </c>
@@ -9203,7 +9191,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>861</v>
       </c>
@@ -9214,7 +9202,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1705</v>
       </c>
@@ -9225,7 +9213,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1397</v>
       </c>
@@ -9236,7 +9224,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -9247,7 +9235,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1159</v>
       </c>
@@ -9258,7 +9246,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1822</v>
       </c>
@@ -9269,7 +9257,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>808</v>
       </c>
@@ -9280,7 +9268,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>927</v>
       </c>
@@ -9291,7 +9279,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>488</v>
       </c>
@@ -9302,7 +9290,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>791</v>
       </c>
@@ -9313,7 +9301,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1925</v>
       </c>
@@ -9324,7 +9312,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1793</v>
       </c>
@@ -9335,7 +9323,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>763</v>
       </c>
@@ -9346,7 +9334,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -9357,7 +9345,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>615</v>
       </c>
@@ -9368,7 +9356,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>587</v>
       </c>
@@ -9379,7 +9367,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>777</v>
       </c>
@@ -9390,7 +9378,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1093</v>
       </c>
@@ -9401,7 +9389,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>733</v>
       </c>
@@ -9412,7 +9400,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1747</v>
       </c>
@@ -9423,7 +9411,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>627</v>
       </c>
@@ -9434,7 +9422,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1003</v>
       </c>
@@ -9445,7 +9433,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1516</v>
       </c>
@@ -9456,7 +9444,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1317</v>
       </c>
@@ -9467,7 +9455,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1600</v>
       </c>
@@ -9478,7 +9466,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1588</v>
       </c>
@@ -9489,7 +9477,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>904</v>
       </c>
@@ -9500,7 +9488,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1928</v>
       </c>
@@ -9511,7 +9499,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1911</v>
       </c>
@@ -9522,7 +9510,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>697</v>
       </c>
@@ -9533,7 +9521,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1277</v>
       </c>
@@ -9544,7 +9532,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1797</v>
       </c>
@@ -9555,7 +9543,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>663</v>
       </c>
@@ -9566,7 +9554,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>921</v>
       </c>
@@ -9577,7 +9565,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1101</v>
       </c>
@@ -9588,7 +9576,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1914</v>
       </c>
@@ -9599,7 +9587,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>910</v>
       </c>
@@ -9610,7 +9598,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>979</v>
       </c>
@@ -9621,7 +9609,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1143</v>
       </c>
@@ -9632,7 +9620,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1903</v>
       </c>
@@ -9643,7 +9631,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1190</v>
       </c>
@@ -9654,7 +9642,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1151</v>
       </c>
@@ -9665,7 +9653,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>506</v>
       </c>
@@ -9676,7 +9664,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1786</v>
       </c>
@@ -9687,7 +9675,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>486</v>
       </c>
@@ -9698,7 +9686,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1194</v>
       </c>
@@ -9709,7 +9697,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>516</v>
       </c>
@@ -9720,7 +9708,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1102</v>
       </c>
@@ -9731,7 +9719,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>498</v>
       </c>
@@ -9742,7 +9730,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>867</v>
       </c>
@@ -9753,7 +9741,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>526</v>
       </c>
@@ -9764,7 +9752,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>623</v>
       </c>
@@ -9775,7 +9763,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1592</v>
       </c>
@@ -9786,7 +9774,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1081</v>
       </c>
@@ -9797,7 +9785,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>609</v>
       </c>
@@ -9808,7 +9796,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>441</v>
       </c>
@@ -9819,7 +9807,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>255</v>
       </c>
@@ -9830,7 +9818,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -9841,7 +9829,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -9852,7 +9840,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1325</v>
       </c>
@@ -9863,7 +9851,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1172</v>
       </c>
@@ -9874,7 +9862,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1333</v>
       </c>
@@ -9885,7 +9873,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>949</v>
       </c>
@@ -9896,7 +9884,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1982</v>
       </c>
@@ -9907,7 +9895,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>773</v>
       </c>
@@ -9918,7 +9906,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -9929,7 +9917,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>751</v>
       </c>
@@ -9940,7 +9928,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1854</v>
       </c>
@@ -9951,7 +9939,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -9962,7 +9950,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1995</v>
       </c>
@@ -9973,7 +9961,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1754</v>
       </c>
@@ -9984,7 +9972,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -9995,7 +9983,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1482</v>
       </c>
@@ -10006,7 +9994,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1998</v>
       </c>
@@ -10017,7 +10005,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1174</v>
       </c>
@@ -10028,7 +10016,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1275</v>
       </c>
@@ -10039,7 +10027,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>871</v>
       </c>
@@ -10050,7 +10038,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>398</v>
       </c>
@@ -10061,7 +10049,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>737</v>
       </c>
@@ -10072,7 +10060,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1756</v>
       </c>
@@ -10083,7 +10071,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>589</v>
       </c>
@@ -10094,7 +10082,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1559</v>
       </c>
@@ -10105,7 +10093,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2004</v>
       </c>
@@ -10116,7 +10104,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>2005</v>
       </c>
@@ -10138,7 +10126,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2009</v>
       </c>
@@ -10149,7 +10137,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2011</v>
       </c>
@@ -10160,7 +10148,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1633</v>
       </c>
@@ -10171,7 +10159,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1209</v>
       </c>
@@ -10182,7 +10170,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>607</v>
       </c>
@@ -10193,7 +10181,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>2016</v>
       </c>
@@ -10204,7 +10192,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1838</v>
       </c>
@@ -10215,7 +10203,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1824</v>
       </c>
@@ -10226,7 +10214,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1121</v>
       </c>
@@ -10237,7 +10225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>384</v>
       </c>
@@ -10248,7 +10236,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1069</v>
       </c>
@@ -10259,7 +10247,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>494</v>
       </c>
@@ -10270,7 +10258,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>890</v>
       </c>
@@ -10281,7 +10269,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1013</v>
       </c>
@@ -10292,7 +10280,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>388</v>
       </c>
@@ -10303,7 +10291,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>185</v>
       </c>
@@ -10314,7 +10302,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>741</v>
       </c>
@@ -10325,7 +10313,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>943</v>
       </c>
@@ -10336,7 +10324,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1758</v>
       </c>
@@ -10347,7 +10335,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>2031</v>
       </c>
@@ -10358,7 +10346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>2032</v>
       </c>
@@ -10369,7 +10357,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1382</v>
       </c>
@@ -10380,7 +10368,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1161</v>
       </c>
@@ -10391,7 +10379,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1504</v>
       </c>
@@ -10402,7 +10390,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1741</v>
       </c>
@@ -10413,7 +10401,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1331</v>
       </c>
@@ -10424,7 +10412,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>847</v>
       </c>
@@ -10435,7 +10423,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1680</v>
       </c>
@@ -10446,7 +10434,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>119</v>
       </c>
@@ -10457,7 +10445,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>484</v>
       </c>
@@ -10468,7 +10456,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1852</v>
       </c>
@@ -10479,7 +10467,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>2042</v>
       </c>
@@ -10490,7 +10478,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1254</v>
       </c>
@@ -10501,7 +10489,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>221</v>
       </c>
@@ -10512,7 +10500,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1053</v>
       </c>
@@ -10523,7 +10511,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>675</v>
       </c>
@@ -10534,7 +10522,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -10545,7 +10533,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>445</v>
       </c>
@@ -10556,7 +10544,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>394</v>
       </c>
@@ -10567,7 +10555,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1195</v>
       </c>
@@ -10578,7 +10566,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1727</v>
       </c>
@@ -10589,7 +10577,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1725</v>
       </c>
@@ -10600,7 +10588,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1700</v>
       </c>
@@ -10611,7 +10599,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>464</v>
       </c>
@@ -10622,7 +10610,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>577</v>
       </c>
@@ -10633,7 +10621,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>253</v>
       </c>
@@ -10644,7 +10632,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>434</v>
       </c>
@@ -10655,7 +10643,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>223</v>
       </c>
@@ -10666,7 +10654,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -10677,7 +10665,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>534</v>
       </c>
@@ -10688,7 +10676,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>631</v>
       </c>
@@ -10699,7 +10687,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1103</v>
       </c>
@@ -10710,7 +10698,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>925</v>
       </c>
@@ -10721,7 +10709,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>771</v>
       </c>
@@ -10732,7 +10720,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1150</v>
       </c>
@@ -10743,7 +10731,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>851</v>
       </c>
@@ -10754,7 +10742,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>369</v>
       </c>
@@ -10765,7 +10753,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1033</v>
       </c>
@@ -10776,7 +10764,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -10787,7 +10775,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1461</v>
       </c>
@@ -10798,7 +10786,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>955</v>
       </c>
@@ -10809,7 +10797,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1141</v>
       </c>
@@ -10820,7 +10808,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>685</v>
       </c>
@@ -10831,7 +10819,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>159</v>
       </c>
@@ -10842,7 +10830,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>705</v>
       </c>
@@ -10853,7 +10841,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>840</v>
       </c>
@@ -10864,7 +10852,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1561</v>
       </c>
@@ -10875,7 +10863,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1180</v>
       </c>
@@ -10886,7 +10874,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1434</v>
       </c>
@@ -10897,7 +10885,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1390</v>
       </c>
@@ -10919,7 +10907,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1451</v>
       </c>
@@ -10930,7 +10918,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1388</v>
       </c>
@@ -10941,7 +10929,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1612</v>
       </c>
@@ -10952,7 +10940,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1745</v>
       </c>
@@ -10963,7 +10951,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>669</v>
       </c>
@@ -10974,7 +10962,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>317</v>
       </c>
@@ -10985,7 +10973,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>309</v>
       </c>
@@ -10996,7 +10984,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1463</v>
       </c>
@@ -11007,7 +10995,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1380</v>
       </c>
@@ -11018,7 +11006,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>343</v>
       </c>
@@ -11029,7 +11017,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -11040,7 +11028,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1514</v>
       </c>
@@ -11051,7 +11039,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1663</v>
       </c>
@@ -11062,7 +11050,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>787</v>
       </c>
@@ -11073,7 +11061,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>426</v>
       </c>
@@ -11084,7 +11072,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1262</v>
       </c>
@@ -11095,7 +11083,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>514</v>
       </c>
@@ -11106,7 +11094,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1657</v>
       </c>
@@ -11117,7 +11105,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1210</v>
       </c>
@@ -11128,7 +11116,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>683</v>
       </c>
@@ -11139,7 +11127,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>72</v>
       </c>
@@ -11150,7 +11138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>826</v>
       </c>
@@ -11161,7 +11149,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>45</v>
       </c>
@@ -11172,7 +11160,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>673</v>
       </c>
@@ -11183,7 +11171,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>725</v>
       </c>
@@ -11194,7 +11182,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>691</v>
       </c>
@@ -11205,7 +11193,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1551</v>
       </c>
@@ -11216,7 +11204,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>265</v>
       </c>
@@ -11227,7 +11215,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>755</v>
       </c>
@@ -11238,7 +11226,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>659</v>
       </c>
@@ -11249,7 +11237,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>82</v>
       </c>
@@ -11260,7 +11248,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>69</v>
       </c>
@@ -11271,7 +11259,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1249</v>
       </c>
@@ -11282,7 +11270,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1661</v>
       </c>
@@ -11293,7 +11281,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>199</v>
       </c>
@@ -11304,7 +11292,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>105</v>
       </c>
@@ -11315,7 +11303,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>530</v>
       </c>
@@ -11326,7 +11314,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>137</v>
       </c>
@@ -11337,7 +11325,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1692</v>
       </c>
@@ -11348,7 +11336,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>163</v>
       </c>
@@ -11359,7 +11347,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1784</v>
       </c>
@@ -11370,7 +11358,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1635</v>
       </c>
@@ -11381,7 +11369,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1519</v>
       </c>
@@ -11392,7 +11380,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>149</v>
       </c>
@@ -11403,7 +11391,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1065</v>
       </c>
@@ -11414,7 +11402,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>171</v>
       </c>
@@ -11425,7 +11413,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1733</v>
       </c>
@@ -11436,7 +11424,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1354</v>
       </c>
@@ -11447,7 +11435,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1009</v>
       </c>
@@ -11458,7 +11446,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1567</v>
       </c>
@@ -11469,7 +11457,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>965</v>
       </c>
@@ -11480,7 +11468,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>747</v>
       </c>
@@ -11491,7 +11479,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1545</v>
       </c>
@@ -11502,7 +11490,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1242</v>
       </c>
@@ -11513,7 +11501,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>731</v>
       </c>
@@ -11524,7 +11512,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1763</v>
       </c>
@@ -11535,7 +11523,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1308</v>
       </c>
@@ -11546,7 +11534,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1669</v>
       </c>
@@ -11557,7 +11545,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>36</v>
       </c>
@@ -11568,7 +11556,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -11579,7 +11567,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>2431</v>
       </c>
@@ -11590,7 +11578,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>2432</v>
       </c>
@@ -11601,7 +11589,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1268</v>
       </c>
@@ -11621,7 +11609,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>2434</v>
       </c>
@@ -11632,7 +11620,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1465</v>
       </c>
@@ -11643,7 +11631,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1433</v>
       </c>
@@ -11654,7 +11642,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1047</v>
       </c>
@@ -11665,7 +11653,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>155</v>
       </c>
@@ -11676,7 +11664,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1637</v>
       </c>
@@ -11687,7 +11675,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>816</v>
       </c>
@@ -11698,7 +11686,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1533</v>
       </c>
@@ -11709,7 +11697,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>58</v>
       </c>
@@ -11720,7 +11708,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1216</v>
       </c>
@@ -11731,7 +11719,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1218</v>
       </c>
@@ -11742,7 +11730,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1292</v>
       </c>
@@ -11753,7 +11741,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>528</v>
       </c>
@@ -11764,7 +11752,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>818</v>
       </c>
@@ -11775,7 +11763,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1486</v>
       </c>
@@ -11786,7 +11774,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1484</v>
       </c>
@@ -11797,7 +11785,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>70</v>
       </c>
@@ -11808,7 +11796,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>2436</v>
       </c>
@@ -11819,7 +11807,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>723</v>
       </c>
@@ -11830,7 +11818,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1233</v>
       </c>
@@ -11841,7 +11829,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1079</v>
       </c>
@@ -11852,7 +11840,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1273</v>
       </c>
@@ -11863,7 +11851,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1039</v>
       </c>
@@ -11874,7 +11862,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1739</v>
       </c>
@@ -11885,7 +11873,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>490</v>
       </c>
@@ -11896,7 +11884,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1288</v>
       </c>
@@ -11907,7 +11895,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1111</v>
       </c>
@@ -11918,7 +11906,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1302</v>
       </c>
@@ -11929,7 +11917,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1584</v>
       </c>
@@ -11940,7 +11928,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1447</v>
       </c>
@@ -11951,7 +11939,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>243</v>
       </c>
@@ -11962,7 +11950,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>286</v>
       </c>
@@ -11973,7 +11961,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -11984,7 +11972,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>275</v>
       </c>
@@ -11995,7 +11983,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1244</v>
       </c>
@@ -12006,7 +11994,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>699</v>
       </c>
@@ -12017,7 +12005,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1001</v>
       </c>
@@ -12028,7 +12016,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>896</v>
       </c>
@@ -12039,7 +12027,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>48</v>
       </c>
@@ -12050,7 +12038,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1832</v>
       </c>
@@ -12061,7 +12049,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>759</v>
       </c>
@@ -12072,7 +12060,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1500</v>
       </c>
@@ -12083,7 +12071,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1502</v>
       </c>
@@ -12094,7 +12082,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>911</v>
       </c>
@@ -12105,7 +12093,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>297</v>
       </c>
@@ -12116,7 +12104,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1729</v>
       </c>
@@ -12127,7 +12115,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>2445</v>
       </c>
@@ -12138,7 +12126,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>468</v>
       </c>
@@ -12149,7 +12137,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1640</v>
       </c>
@@ -12160,7 +12148,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1398</v>
       </c>
@@ -12171,7 +12159,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>855</v>
       </c>
@@ -12182,7 +12170,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1203</v>
       </c>
@@ -12193,7 +12181,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1508</v>
       </c>
@@ -12204,7 +12192,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1475</v>
       </c>
@@ -12215,7 +12203,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1135</v>
       </c>
@@ -12226,7 +12214,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>151</v>
       </c>
@@ -12237,7 +12225,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>127</v>
       </c>
@@ -12248,7 +12236,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>743</v>
       </c>
@@ -12259,7 +12247,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>367</v>
       </c>
@@ -12270,7 +12258,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>540</v>
       </c>
@@ -12281,7 +12269,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1229</v>
       </c>
@@ -12292,7 +12280,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>466</v>
       </c>
@@ -12303,7 +12291,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>800</v>
       </c>
@@ -12314,7 +12302,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1176</v>
       </c>
@@ -12325,7 +12313,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1795</v>
       </c>
@@ -12336,7 +12324,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>613</v>
       </c>
@@ -12347,7 +12335,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1752</v>
       </c>
@@ -12358,7 +12346,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>617</v>
       </c>
@@ -12369,7 +12357,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>263</v>
       </c>
@@ -12380,7 +12368,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>571</v>
       </c>
@@ -12391,7 +12379,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1384</v>
       </c>
@@ -12402,7 +12390,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>339</v>
       </c>
@@ -12413,7 +12401,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>913</v>
       </c>
@@ -12424,7 +12412,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1549</v>
       </c>
@@ -12435,7 +12423,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1035</v>
       </c>
@@ -12446,7 +12434,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>301</v>
       </c>
@@ -12457,7 +12445,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>947</v>
       </c>
@@ -12468,7 +12456,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1799</v>
       </c>
@@ -12479,7 +12467,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>290</v>
       </c>
@@ -12490,7 +12478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1125</v>
       </c>
@@ -12501,7 +12489,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>951</v>
       </c>
@@ -12512,7 +12500,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>886</v>
       </c>
@@ -12523,7 +12511,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>2455</v>
       </c>
@@ -12534,7 +12522,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>61</v>
       </c>
@@ -12545,7 +12533,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>603</v>
       </c>
@@ -12556,7 +12544,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>522</v>
       </c>
@@ -12567,7 +12555,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1563</v>
       </c>
@@ -12578,7 +12566,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1498</v>
       </c>
@@ -12589,7 +12577,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>2456</v>
       </c>
@@ -12600,7 +12588,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>225</v>
       </c>
@@ -12611,7 +12599,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>428</v>
       </c>
@@ -12622,7 +12610,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1113</v>
       </c>
@@ -12633,7 +12621,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1291</v>
       </c>
@@ -12644,7 +12632,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>452</v>
       </c>
@@ -12655,7 +12643,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>538</v>
       </c>
@@ -12666,7 +12654,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1495</v>
       </c>
@@ -12677,7 +12665,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>293</v>
       </c>
@@ -12688,7 +12676,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>845</v>
       </c>
@@ -12699,7 +12687,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>321</v>
       </c>
@@ -12710,7 +12698,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>319</v>
       </c>
@@ -12721,7 +12709,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>939</v>
       </c>
@@ -12732,7 +12720,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>637</v>
       </c>
@@ -12743,7 +12731,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1346</v>
       </c>
@@ -12754,7 +12742,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>789</v>
       </c>
@@ -12765,7 +12753,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1690</v>
       </c>
@@ -12776,7 +12764,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>425</v>
       </c>
@@ -12787,7 +12775,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>406</v>
       </c>
@@ -12798,7 +12786,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1788</v>
       </c>
@@ -12809,7 +12797,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>915</v>
       </c>
@@ -12820,7 +12808,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>183</v>
       </c>
@@ -12831,7 +12819,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1627</v>
       </c>
@@ -12842,7 +12830,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>313</v>
       </c>
@@ -12853,7 +12841,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>775</v>
       </c>
@@ -12864,7 +12852,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1163</v>
       </c>
@@ -12875,7 +12863,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>721</v>
       </c>
@@ -12886,7 +12874,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>565</v>
       </c>
@@ -12897,7 +12885,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1836</v>
       </c>
@@ -12908,7 +12896,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1720</v>
       </c>
@@ -12919,7 +12907,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>765</v>
       </c>
@@ -12930,7 +12918,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1297</v>
       </c>
@@ -12941,7 +12929,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>447</v>
       </c>
@@ -12952,7 +12940,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>404</v>
       </c>
@@ -12963,7 +12951,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>611</v>
       </c>
@@ -12974,7 +12962,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1828</v>
       </c>
@@ -12985,7 +12973,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>717</v>
       </c>
@@ -12996,7 +12984,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1153</v>
       </c>
@@ -13007,7 +12995,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>21</v>
       </c>
@@ -13018,7 +13006,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1834</v>
       </c>
@@ -13029,7 +13017,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1510</v>
       </c>
@@ -13040,7 +13028,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>661</v>
       </c>
@@ -13051,7 +13039,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>153</v>
       </c>
@@ -13062,7 +13050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>923</v>
       </c>
@@ -13073,7 +13061,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>219</v>
       </c>
@@ -13084,7 +13072,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>822</v>
       </c>
@@ -13095,7 +13083,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>585</v>
       </c>
@@ -13106,7 +13094,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1625</v>
       </c>
@@ -13117,7 +13105,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>977</v>
       </c>
@@ -13128,7 +13116,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>423</v>
       </c>
@@ -13139,7 +13127,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>793</v>
       </c>
@@ -13150,7 +13138,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1648</v>
       </c>
@@ -13161,7 +13149,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>472</v>
       </c>
@@ -13172,7 +13160,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1139</v>
       </c>
@@ -13183,7 +13171,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>15</v>
       </c>
@@ -13194,7 +13182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>917</v>
       </c>
@@ -13205,7 +13193,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1694</v>
       </c>
@@ -13216,7 +13204,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>842</v>
       </c>
@@ -13227,7 +13215,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>989</v>
       </c>
@@ -13238,7 +13226,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>24</v>
       </c>
@@ -13249,7 +13237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>454</v>
       </c>
@@ -13260,7 +13248,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1449</v>
       </c>
@@ -13271,7 +13259,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>719</v>
       </c>
@@ -13282,7 +13270,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>745</v>
       </c>
@@ -13293,7 +13281,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>629</v>
       </c>
@@ -13304,7 +13292,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1051</v>
       </c>
@@ -13315,7 +13303,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>681</v>
       </c>
@@ -13326,7 +13314,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1214</v>
       </c>
@@ -13337,7 +13325,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1594</v>
       </c>
@@ -13348,7 +13336,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1652</v>
       </c>
@@ -13359,7 +13347,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>967</v>
       </c>
@@ -13370,7 +13358,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>761</v>
       </c>
@@ -13381,7 +13369,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>98</v>
       </c>
@@ -13392,7 +13380,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>100</v>
       </c>
@@ -13403,7 +13391,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>621</v>
       </c>
@@ -13414,7 +13402,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1005</v>
       </c>
@@ -13425,7 +13413,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1555</v>
       </c>
@@ -13436,7 +13424,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>898</v>
       </c>
@@ -13447,7 +13435,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1731</v>
       </c>
@@ -13458,7 +13446,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1017</v>
       </c>
@@ -13469,7 +13457,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1711</v>
       </c>
@@ -13480,7 +13468,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>749</v>
       </c>
@@ -13491,7 +13479,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>376</v>
       </c>
@@ -13502,7 +13490,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1526</v>
       </c>
@@ -13513,7 +13501,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1119</v>
       </c>
@@ -13524,7 +13512,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>2458</v>
       </c>
@@ -13535,7 +13523,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>386</v>
       </c>
@@ -13546,7 +13534,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>251</v>
       </c>
@@ -13566,7 +13554,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>520</v>
       </c>
@@ -13577,7 +13565,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>249</v>
       </c>
@@ -13588,7 +13576,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>365</v>
       </c>
@@ -13599,7 +13587,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>191</v>
       </c>
@@ -13610,7 +13598,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>549</v>
       </c>
@@ -13621,7 +13609,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>147</v>
       </c>
@@ -13632,7 +13620,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1411</v>
       </c>
@@ -13643,7 +13631,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>311</v>
       </c>
@@ -13654,7 +13642,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>197</v>
       </c>
@@ -13665,7 +13653,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>753</v>
       </c>
@@ -13676,7 +13664,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>601</v>
       </c>
@@ -13687,7 +13675,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1400</v>
       </c>
@@ -13698,7 +13686,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>739</v>
       </c>
@@ -13709,7 +13697,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>735</v>
       </c>
@@ -13720,7 +13708,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1522</v>
       </c>
@@ -13731,7 +13719,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1644</v>
       </c>
@@ -13742,7 +13730,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>443</v>
       </c>
@@ -13753,7 +13741,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>284</v>
       </c>
@@ -13764,7 +13752,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1453</v>
       </c>
@@ -13775,7 +13763,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1251</v>
       </c>
@@ -13786,7 +13774,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1131</v>
       </c>
@@ -13797,7 +13785,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>937</v>
       </c>
@@ -13808,7 +13796,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1329</v>
       </c>
@@ -13819,7 +13807,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1467</v>
       </c>
@@ -13830,7 +13818,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1608</v>
       </c>
@@ -13841,7 +13829,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>957</v>
       </c>
@@ -13852,7 +13840,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>333</v>
       </c>
@@ -13863,7 +13851,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1049</v>
       </c>
@@ -13874,7 +13862,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1269</v>
       </c>
@@ -13885,7 +13873,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>542</v>
       </c>
@@ -13896,7 +13884,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>997</v>
       </c>
@@ -13907,7 +13895,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>995</v>
       </c>
@@ -13918,7 +13906,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1107</v>
       </c>
@@ -13929,7 +13917,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1335</v>
       </c>
@@ -13940,7 +13928,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>563</v>
       </c>
@@ -13951,7 +13939,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>237</v>
       </c>
@@ -13962,7 +13950,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1539</v>
       </c>
@@ -13973,7 +13961,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>307</v>
       </c>
@@ -13984,7 +13972,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>2459</v>
       </c>
@@ -13995,7 +13983,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>641</v>
       </c>
@@ -14006,7 +13994,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>547</v>
       </c>
@@ -14017,7 +14005,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>241</v>
       </c>
@@ -14028,7 +14016,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>597</v>
       </c>
@@ -14039,7 +14027,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>295</v>
       </c>
@@ -14050,7 +14038,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>480</v>
       </c>
@@ -14061,7 +14049,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1260</v>
       </c>
@@ -14072,7 +14060,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>282</v>
       </c>
@@ -14083,7 +14071,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1199</v>
       </c>
@@ -14094,7 +14082,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>969</v>
       </c>
@@ -14105,7 +14093,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>74</v>
       </c>
@@ -14116,7 +14104,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>432</v>
       </c>
@@ -14127,7 +14115,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>605</v>
       </c>
@@ -14138,7 +14126,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1723</v>
       </c>
@@ -14158,7 +14146,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1037</v>
       </c>
@@ -14169,7 +14157,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1055</v>
       </c>
@@ -14180,7 +14168,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1271</v>
       </c>
@@ -14191,7 +14179,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>280</v>
       </c>
@@ -14211,7 +14199,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1264</v>
       </c>
@@ -14222,7 +14210,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>0</v>
       </c>
@@ -14242,7 +14230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1811</v>
       </c>
@@ -14253,7 +14241,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>767</v>
       </c>
@@ -14264,7 +14252,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>439</v>
       </c>
@@ -14275,7 +14263,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>245</v>
       </c>
@@ -14286,7 +14274,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1790</v>
       </c>
@@ -14297,7 +14285,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>213</v>
       </c>
@@ -14308,7 +14296,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1306</v>
       </c>
@@ -14319,7 +14307,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>888</v>
       </c>
@@ -14330,7 +14318,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>409</v>
       </c>
@@ -14341,7 +14329,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1246</v>
       </c>
@@ -14352,7 +14340,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>372</v>
       </c>
@@ -14363,7 +14351,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1077</v>
       </c>
@@ -14374,7 +14362,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>361</v>
       </c>
@@ -14385,7 +14373,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>55</v>
       </c>
@@ -14396,7 +14384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>2461</v>
       </c>
@@ -14416,7 +14404,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>229</v>
       </c>
@@ -14427,7 +14415,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>865</v>
       </c>
@@ -14438,7 +14426,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1073</v>
       </c>
@@ -14449,7 +14437,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1168</v>
       </c>
@@ -14460,7 +14448,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1043</v>
       </c>
@@ -14471,7 +14459,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>665</v>
       </c>
@@ -14482,7 +14470,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>625</v>
       </c>
@@ -14493,7 +14481,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>902</v>
       </c>
@@ -14504,7 +14492,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>371</v>
       </c>
@@ -14515,7 +14503,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1684</v>
       </c>
@@ -14526,7 +14514,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>828</v>
       </c>
@@ -14537,7 +14525,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1423</v>
       </c>
@@ -14548,7 +14536,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>203</v>
       </c>
@@ -14559,7 +14547,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>323</v>
       </c>
@@ -14570,7 +14558,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>695</v>
       </c>
@@ -14581,7 +14569,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1527</v>
       </c>
@@ -14592,7 +14580,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>337</v>
       </c>
@@ -14612,7 +14600,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>884</v>
       </c>
@@ -14623,7 +14611,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>993</v>
       </c>
@@ -14634,7 +14622,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>593</v>
       </c>
@@ -14645,7 +14633,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>325</v>
       </c>
@@ -14656,7 +14644,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>378</v>
       </c>
@@ -14676,7 +14664,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>569</v>
       </c>
@@ -14687,7 +14675,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1239</v>
       </c>
@@ -14698,7 +14686,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1650</v>
       </c>
@@ -14709,7 +14697,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>125</v>
       </c>
@@ -14720,7 +14708,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1402</v>
       </c>
@@ -14731,7 +14719,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>165</v>
       </c>
@@ -14742,7 +14730,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1023</v>
       </c>
@@ -14753,7 +14741,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1327</v>
       </c>
@@ -14764,7 +14752,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>450</v>
       </c>
@@ -14775,7 +14763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>374</v>
       </c>
@@ -14786,7 +14774,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>157</v>
       </c>
@@ -14797,7 +14785,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1497</v>
       </c>
@@ -14808,7 +14796,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>727</v>
       </c>
@@ -14819,7 +14807,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>107</v>
       </c>
@@ -14830,7 +14818,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>173</v>
       </c>
@@ -14841,7 +14829,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1667</v>
       </c>
@@ -14852,7 +14840,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1688</v>
       </c>
@@ -14863,7 +14851,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1045</v>
       </c>
@@ -14874,7 +14862,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>834</v>
       </c>
@@ -14885,7 +14873,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>411</v>
       </c>
@@ -14896,7 +14884,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1772</v>
       </c>
@@ -14907,7 +14895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>257</v>
       </c>
@@ -14918,7 +14906,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1606</v>
       </c>
@@ -14929,7 +14917,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>2483</v>
       </c>
@@ -14940,7 +14928,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1565</v>
       </c>
@@ -14951,7 +14939,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>345</v>
       </c>
@@ -14962,7 +14950,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>651</v>
       </c>
@@ -14973,7 +14961,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1105</v>
       </c>
@@ -14984,7 +14972,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1429</v>
       </c>
@@ -14995,7 +14983,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1184</v>
       </c>
@@ -15006,7 +14994,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>271</v>
       </c>
@@ -15017,7 +15005,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>643</v>
       </c>
@@ -15028,7 +15016,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>559</v>
       </c>
@@ -15039,7 +15027,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>139</v>
       </c>
@@ -15050,7 +15038,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>303</v>
       </c>
@@ -15061,7 +15049,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>177</v>
       </c>
@@ -15072,7 +15060,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1537</v>
       </c>
@@ -15083,7 +15071,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>51</v>
       </c>
@@ -15103,7 +15091,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>981</v>
       </c>
@@ -15114,7 +15102,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>961</v>
       </c>
@@ -15125,7 +15113,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1087</v>
       </c>
@@ -15136,7 +15124,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>796</v>
       </c>
@@ -15147,7 +15135,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1623</v>
       </c>
@@ -15158,7 +15146,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>382</v>
       </c>
@@ -15169,7 +15157,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>591</v>
       </c>
@@ -15180,7 +15168,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>351</v>
       </c>
@@ -15191,7 +15179,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>504</v>
       </c>
@@ -15202,7 +15190,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>711</v>
       </c>
@@ -15213,7 +15201,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1115</v>
       </c>
@@ -15224,7 +15212,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1417</v>
       </c>
@@ -15235,7 +15223,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1117</v>
       </c>
@@ -15246,7 +15234,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1431</v>
       </c>
@@ -15257,7 +15245,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>729</v>
       </c>
@@ -15268,7 +15256,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1750</v>
       </c>
@@ -15279,7 +15267,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1011</v>
       </c>
@@ -15290,7 +15278,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>647</v>
       </c>
@@ -15301,7 +15289,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>512</v>
       </c>
@@ -15312,7 +15300,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1155</v>
       </c>
@@ -15323,7 +15311,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1304</v>
       </c>
@@ -15334,7 +15322,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1478</v>
       </c>
@@ -15345,7 +15333,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>806</v>
       </c>
@@ -15356,7 +15344,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1281</v>
       </c>
@@ -15367,7 +15355,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>291</v>
       </c>
@@ -15378,7 +15366,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1576</v>
       </c>
@@ -15389,7 +15377,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1157</v>
       </c>
@@ -15400,7 +15388,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1603</v>
       </c>
@@ -15411,7 +15399,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1133</v>
       </c>
@@ -15422,7 +15410,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>709</v>
       </c>
@@ -15433,7 +15421,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1521</v>
       </c>
@@ -15444,7 +15432,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>919</v>
       </c>
@@ -15455,7 +15443,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>863</v>
       </c>
@@ -15466,7 +15454,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>657</v>
       </c>
@@ -15477,7 +15465,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1059</v>
       </c>
@@ -15488,7 +15476,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>209</v>
       </c>
@@ -15499,7 +15487,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1315</v>
       </c>
@@ -15510,7 +15498,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1343</v>
       </c>
@@ -15521,7 +15509,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>90</v>
       </c>
@@ -15532,7 +15520,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1256</v>
       </c>
@@ -15543,7 +15531,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1166</v>
       </c>
@@ -15554,7 +15542,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>181</v>
       </c>
@@ -15565,7 +15553,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>906</v>
       </c>
@@ -15576,7 +15564,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>478</v>
       </c>
@@ -15587,7 +15575,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>707</v>
       </c>
@@ -15598,7 +15586,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>117</v>
       </c>
@@ -15609,7 +15597,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1284</v>
       </c>
@@ -15620,7 +15608,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>877</v>
       </c>
@@ -15631,7 +15619,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>341</v>
       </c>
@@ -15642,7 +15630,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1572</v>
       </c>
@@ -15653,7 +15641,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>113</v>
       </c>
@@ -15664,7 +15652,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1099</v>
       </c>
@@ -15675,7 +15663,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1404</v>
       </c>
@@ -15686,7 +15674,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>359</v>
       </c>
@@ -15697,7 +15685,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1619</v>
       </c>
@@ -15708,7 +15696,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>42</v>
       </c>
@@ -15719,7 +15707,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1737</v>
       </c>
@@ -15730,7 +15718,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1707</v>
       </c>
@@ -15741,7 +15729,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>687</v>
       </c>
@@ -15752,7 +15740,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1083</v>
       </c>
@@ -15763,7 +15751,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>402</v>
       </c>
@@ -15774,7 +15762,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>502</v>
       </c>
@@ -15785,7 +15773,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>971</v>
       </c>
@@ -15796,7 +15784,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>417</v>
       </c>
@@ -15807,7 +15795,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>567</v>
       </c>
@@ -15818,7 +15806,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1392</v>
       </c>
@@ -15829,7 +15817,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1639</v>
       </c>
@@ -15840,7 +15828,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1642</v>
       </c>
@@ -15851,7 +15839,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>882</v>
       </c>
@@ -15862,7 +15850,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>299</v>
       </c>
@@ -15873,7 +15861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1469</v>
       </c>
@@ -15884,7 +15872,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>991</v>
       </c>
@@ -15895,7 +15883,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>419</v>
       </c>
@@ -15906,7 +15894,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1386</v>
       </c>
@@ -15917,7 +15905,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>80</v>
       </c>
@@ -15928,7 +15916,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>380</v>
       </c>
@@ -15939,7 +15927,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>500</v>
       </c>
@@ -15950,7 +15938,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1063</v>
       </c>
@@ -15961,7 +15949,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>945</v>
       </c>
@@ -15972,7 +15960,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>963</v>
       </c>
@@ -15983,7 +15971,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>131</v>
       </c>
@@ -15994,7 +15982,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1019</v>
       </c>
@@ -16005,7 +15993,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1294</v>
       </c>
@@ -16016,7 +16004,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1547</v>
       </c>
@@ -16027,7 +16015,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="654" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>109</v>
       </c>
@@ -16038,7 +16026,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1393</v>
       </c>
@@ -16049,7 +16037,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>227</v>
       </c>
@@ -16060,7 +16048,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1813</v>
       </c>
@@ -16071,7 +16059,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1247</v>
       </c>
@@ -16082,7 +16070,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>941</v>
       </c>
@@ -16093,7 +16081,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>769</v>
       </c>
@@ -16104,7 +16092,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>259</v>
       </c>
@@ -16115,7 +16103,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1598</v>
       </c>
@@ -16126,7 +16114,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1665</v>
       </c>
@@ -16137,7 +16125,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>779</v>
       </c>
@@ -16148,7 +16136,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1782</v>
       </c>
@@ -16159,7 +16147,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>983</v>
       </c>
@@ -16170,7 +16158,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>449</v>
       </c>
@@ -16181,7 +16169,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1029</v>
       </c>
@@ -16192,7 +16180,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1543</v>
       </c>
@@ -16203,7 +16191,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>456</v>
       </c>
@@ -16214,7 +16202,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>838</v>
       </c>
@@ -16225,7 +16213,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>239</v>
       </c>
@@ -16236,7 +16224,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1015</v>
       </c>
@@ -16247,7 +16235,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="674" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>859</v>
       </c>
@@ -16258,7 +16246,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>189</v>
       </c>
@@ -16269,7 +16257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>959</v>
       </c>
@@ -16280,7 +16268,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>689</v>
       </c>
@@ -16291,7 +16279,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1027</v>
       </c>
@@ -16302,7 +16290,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1569</v>
       </c>
@@ -16313,7 +16301,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1815</v>
       </c>
@@ -16324,7 +16312,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="681" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>581</v>
       </c>
@@ -16335,7 +16323,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>215</v>
       </c>
@@ -16346,7 +16334,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="683" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1178</v>
       </c>
@@ -16357,7 +16345,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>482</v>
       </c>
@@ -16368,7 +16356,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="685" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1356</v>
       </c>
@@ -16379,7 +16367,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1409</v>
       </c>
@@ -16390,7 +16378,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1702</v>
       </c>
@@ -16401,7 +16389,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>555</v>
       </c>
@@ -16412,7 +16400,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1557</v>
       </c>
@@ -16423,7 +16411,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1212</v>
       </c>
@@ -16434,7 +16422,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1455</v>
       </c>
@@ -16445,7 +16433,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1842</v>
       </c>
@@ -16456,7 +16444,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="693" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>235</v>
       </c>
@@ -16467,7 +16455,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="694" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1765</v>
       </c>
@@ -16478,7 +16466,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>103</v>
       </c>
@@ -16489,7 +16477,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>415</v>
       </c>
@@ -16500,7 +16488,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>880</v>
       </c>
@@ -16511,7 +16499,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>458</v>
       </c>
@@ -16522,7 +16510,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1075</v>
       </c>
@@ -16533,7 +16521,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1488</v>
       </c>
@@ -16544,7 +16532,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1061</v>
       </c>
@@ -16555,7 +16543,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>2428</v>
       </c>
@@ -16566,7 +16554,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1850</v>
       </c>
@@ -16577,7 +16565,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1197</v>
       </c>
@@ -16588,7 +16576,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>2477</v>
       </c>
@@ -16599,7 +16587,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>836</v>
       </c>
@@ -16610,7 +16598,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="707" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>802</v>
       </c>
@@ -16621,7 +16609,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>363</v>
       </c>
@@ -16632,7 +16620,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>973</v>
       </c>
@@ -16643,7 +16631,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1531</v>
       </c>
@@ -16654,7 +16642,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>894</v>
       </c>
@@ -16665,7 +16653,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1231</v>
       </c>
@@ -16676,7 +16664,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="713" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1445</v>
       </c>
@@ -16687,7 +16675,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>953</v>
       </c>
@@ -16698,7 +16686,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1241</v>
       </c>
@@ -16709,7 +16697,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>129</v>
       </c>
@@ -16720,7 +16708,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>396</v>
       </c>
@@ -16731,7 +16719,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>783</v>
       </c>
@@ -16742,7 +16730,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>810</v>
       </c>
@@ -16753,7 +16741,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>619</v>
       </c>
@@ -16764,7 +16752,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>2481</v>
       </c>
@@ -16775,7 +16763,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>703</v>
       </c>
@@ -16786,7 +16774,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1252</v>
       </c>
@@ -16797,7 +16785,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>400</v>
       </c>
@@ -16808,7 +16796,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1436</v>
       </c>
@@ -16819,7 +16807,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1438</v>
       </c>
@@ -16830,7 +16818,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="727" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>492</v>
       </c>
@@ -16841,7 +16829,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>575</v>
       </c>
@@ -16852,7 +16840,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>595</v>
       </c>
@@ -16863,7 +16851,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1610</v>
       </c>
@@ -16874,7 +16862,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>357</v>
       </c>
@@ -16885,7 +16873,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1129</v>
       </c>
@@ -16896,7 +16884,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1820</v>
       </c>
@@ -16907,7 +16895,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>824</v>
       </c>
@@ -16918,7 +16906,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>27</v>
       </c>
@@ -16929,7 +16917,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1123</v>
       </c>
@@ -16940,7 +16928,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>315</v>
       </c>
@@ -16951,7 +16939,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>633</v>
       </c>
@@ -16962,7 +16950,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>869</v>
       </c>
@@ -16973,7 +16961,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>335</v>
       </c>
@@ -16984,7 +16972,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1145</v>
       </c>
@@ -16995,7 +16983,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>677</v>
       </c>
@@ -17006,7 +16994,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1341</v>
       </c>
@@ -17017,7 +17005,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1805</v>
       </c>
@@ -17028,7 +17016,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>187</v>
       </c>
@@ -17039,7 +17027,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>579</v>
       </c>
@@ -17050,7 +17038,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>508</v>
       </c>
@@ -17061,7 +17049,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>437</v>
       </c>
@@ -17072,7 +17060,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1586</v>
       </c>
@@ -17083,7 +17071,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>804</v>
       </c>
@@ -17094,7 +17082,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1223</v>
       </c>
@@ -17105,7 +17093,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>2482</v>
       </c>
@@ -17116,7 +17104,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1506</v>
       </c>
@@ -17127,7 +17115,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1148</v>
       </c>
@@ -17138,7 +17126,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="755" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1057</v>
       </c>
@@ -17149,7 +17137,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>133</v>
       </c>
@@ -17160,7 +17148,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>999</v>
       </c>
@@ -17182,7 +17170,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>121</v>
       </c>
@@ -17193,7 +17181,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1127</v>
       </c>
@@ -17204,7 +17192,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1613</v>
       </c>
@@ -17215,7 +17203,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1596</v>
       </c>
@@ -17226,7 +17214,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1286</v>
       </c>
@@ -17237,7 +17225,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="764" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1801</v>
       </c>
@@ -17248,7 +17236,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="765" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>929</v>
       </c>
@@ -17259,7 +17247,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>892</v>
       </c>
@@ -17270,7 +17258,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1413</v>
       </c>
@@ -17281,7 +17269,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="768" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1709</v>
       </c>
@@ -17292,7 +17280,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>217</v>
       </c>
@@ -17303,7 +17291,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>639</v>
       </c>
@@ -17314,7 +17302,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="771" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1421</v>
       </c>
@@ -17325,7 +17313,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>693</v>
       </c>
@@ -17336,7 +17324,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>667</v>
       </c>
@@ -17347,7 +17335,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1237</v>
       </c>
@@ -17358,7 +17346,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1553</v>
       </c>
@@ -17369,7 +17357,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1205</v>
       </c>
@@ -17380,7 +17368,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1007</v>
       </c>
@@ -17391,7 +17379,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>288</v>
       </c>
@@ -17402,7 +17390,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>476</v>
       </c>
@@ -17413,7 +17401,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>88</v>
       </c>
@@ -17424,7 +17412,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="781" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1201</v>
       </c>
@@ -17435,7 +17423,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>933</v>
       </c>
@@ -17446,7 +17434,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1071</v>
       </c>
@@ -17457,7 +17445,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1177</v>
       </c>
@@ -17468,7 +17456,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>536</v>
       </c>
@@ -17479,7 +17467,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>599</v>
       </c>
@@ -17490,7 +17478,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1760</v>
       </c>
@@ -17501,7 +17489,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1182</v>
       </c>
@@ -17512,7 +17500,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>2484</v>
       </c>
@@ -17523,7 +17511,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1321</v>
       </c>
@@ -17534,7 +17522,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="791" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1848</v>
       </c>
@@ -17545,7 +17533,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>2486</v>
       </c>
@@ -17556,7 +17544,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="793" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>18</v>
       </c>
@@ -17567,7 +17555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>347</v>
       </c>
@@ -17578,7 +17566,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1818</v>
       </c>
@@ -17600,7 +17588,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>273</v>
       </c>
@@ -17611,7 +17599,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1677</v>
       </c>
@@ -17622,7 +17610,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>573</v>
       </c>
@@ -17633,7 +17621,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>655</v>
       </c>
@@ -17644,7 +17632,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>812</v>
       </c>
@@ -17655,7 +17643,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1085</v>
       </c>
@@ -17666,7 +17654,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1578</v>
       </c>
@@ -17677,7 +17665,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>135</v>
       </c>
@@ -17688,7 +17676,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>908</v>
       </c>
@@ -17699,7 +17687,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>474</v>
       </c>
@@ -17710,7 +17698,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>561</v>
       </c>
@@ -17721,7 +17709,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1337</v>
       </c>
@@ -17732,7 +17720,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1427</v>
       </c>
@@ -17743,7 +17731,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>327</v>
       </c>
@@ -17754,7 +17742,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1826</v>
       </c>
@@ -17765,7 +17753,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1221</v>
       </c>
@@ -17776,7 +17764,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1473</v>
       </c>
@@ -17787,7 +17775,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>853</v>
       </c>
@@ -17812,13 +17800,13 @@
         <v>2462</v>
       </c>
       <c r="E815" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="F815" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>462</v>
       </c>
@@ -17829,7 +17817,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>430</v>
       </c>
@@ -17840,7 +17828,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1443</v>
       </c>
@@ -17851,7 +17839,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1407</v>
       </c>
@@ -17862,7 +17850,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>987</v>
       </c>
@@ -17873,7 +17861,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>798</v>
       </c>
@@ -17884,7 +17872,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1529</v>
       </c>
@@ -17904,7 +17892,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1097</v>
       </c>
@@ -17915,7 +17903,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1165</v>
       </c>
@@ -17926,7 +17914,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>701</v>
       </c>
@@ -17937,7 +17925,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>849</v>
       </c>
@@ -17948,7 +17936,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>975</v>
       </c>
@@ -17959,7 +17947,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>757</v>
       </c>
@@ -17970,7 +17958,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1480</v>
       </c>
@@ -17981,7 +17969,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>653</v>
       </c>
@@ -17992,7 +17980,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1095</v>
       </c>
@@ -18003,7 +17991,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1266</v>
       </c>
@@ -18014,7 +18002,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1031</v>
       </c>
@@ -18025,7 +18013,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1672</v>
       </c>
@@ -18036,7 +18024,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>207</v>
       </c>
@@ -18047,7 +18035,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>195</v>
       </c>
@@ -18058,7 +18046,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1067</v>
       </c>
@@ -18069,7 +18057,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>671</v>
       </c>
@@ -18080,7 +18068,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>785</v>
       </c>
@@ -18091,7 +18079,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1735</v>
       </c>
@@ -18102,7 +18090,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1655</v>
       </c>
@@ -18113,7 +18101,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1415</v>
       </c>
@@ -18133,7 +18121,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1312</v>
       </c>
@@ -18144,7 +18132,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1716</v>
       </c>
@@ -18155,7 +18143,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1621</v>
       </c>
@@ -18166,7 +18154,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1616</v>
       </c>
@@ -18177,7 +18165,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1679</v>
       </c>
@@ -18188,7 +18176,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1258</v>
       </c>
@@ -18199,7 +18187,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1186</v>
       </c>
@@ -18211,17 +18199,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A849">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="аренда,машин"/>
-        <filter val="вязальная машина"/>
-        <filter val="углошлифмашинк"/>
-        <filter val="хранение шин"/>
-        <filter val="шин"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:F852">
     <sortCondition ref="A1"/>
   </sortState>

--- a/Ключи.xlsx
+++ b/Ключи.xlsx
@@ -6554,9 +6554,6 @@
     <t>Применяется пескоструй.</t>
   </si>
   <si>
-    <t>Печати существуют.</t>
-  </si>
-  <si>
     <t>Приготовить пиццу.</t>
   </si>
   <si>
@@ -7836,6 +7833,9 @@
   </si>
   <si>
     <t>Автосервис.</t>
+  </si>
+  <si>
+    <t>оффсетная печать</t>
   </si>
 </sst>
 </file>
@@ -8702,8 +8702,8 @@
   <dimension ref="A1:F849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9496,7 +9496,7 @@
         <v>901</v>
       </c>
       <c r="C68" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -10695,7 +10695,7 @@
         <v>1104</v>
       </c>
       <c r="C177" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -10706,7 +10706,7 @@
         <v>926</v>
       </c>
       <c r="C178" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -10728,7 +10728,7 @@
         <v>416</v>
       </c>
       <c r="C180" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -10739,7 +10739,7 @@
         <v>852</v>
       </c>
       <c r="C181" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -10750,7 +10750,7 @@
         <v>1367</v>
       </c>
       <c r="C182" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -10769,10 +10769,10 @@
         <v>30</v>
       </c>
       <c r="B184" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C184" t="s">
         <v>2423</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -10805,7 +10805,7 @@
         <v>1142</v>
       </c>
       <c r="C187" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -10849,7 +10849,7 @@
         <v>841</v>
       </c>
       <c r="C191" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -10882,7 +10882,7 @@
         <v>1435</v>
       </c>
       <c r="C194" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -10893,7 +10893,7 @@
         <v>1391</v>
       </c>
       <c r="C195" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -10915,7 +10915,7 @@
         <v>1452</v>
       </c>
       <c r="C197" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -10937,7 +10937,7 @@
         <v>57</v>
       </c>
       <c r="C199" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -10981,7 +10981,7 @@
         <v>310</v>
       </c>
       <c r="C203" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -10992,7 +10992,7 @@
         <v>1464</v>
       </c>
       <c r="C204" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -11036,7 +11036,7 @@
         <v>1515</v>
       </c>
       <c r="C208" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -11047,7 +11047,7 @@
         <v>1664</v>
       </c>
       <c r="C209" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -11058,7 +11058,7 @@
         <v>788</v>
       </c>
       <c r="C210" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -11069,7 +11069,7 @@
         <v>427</v>
       </c>
       <c r="C211" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
         <v>1263</v>
       </c>
       <c r="C212" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -11146,7 +11146,7 @@
         <v>827</v>
       </c>
       <c r="C218" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -11201,7 +11201,7 @@
         <v>1552</v>
       </c>
       <c r="C223" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -11212,7 +11212,7 @@
         <v>266</v>
       </c>
       <c r="C224" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -11223,7 +11223,7 @@
         <v>756</v>
       </c>
       <c r="C225" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -11245,7 +11245,7 @@
         <v>83</v>
       </c>
       <c r="C227" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -11278,7 +11278,7 @@
         <v>1662</v>
       </c>
       <c r="C230" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -11289,7 +11289,7 @@
         <v>200</v>
       </c>
       <c r="C231" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -11300,7 +11300,7 @@
         <v>106</v>
       </c>
       <c r="C232" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -11322,7 +11322,7 @@
         <v>138</v>
       </c>
       <c r="C234" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -11333,7 +11333,7 @@
         <v>1693</v>
       </c>
       <c r="C235" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -11344,7 +11344,7 @@
         <v>164</v>
       </c>
       <c r="C236" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -11355,7 +11355,7 @@
         <v>1785</v>
       </c>
       <c r="C237" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -11366,7 +11366,7 @@
         <v>1636</v>
       </c>
       <c r="C238" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -11377,7 +11377,7 @@
         <v>1520</v>
       </c>
       <c r="C239" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -11432,7 +11432,7 @@
         <v>1355</v>
       </c>
       <c r="C244" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -11454,7 +11454,7 @@
         <v>1568</v>
       </c>
       <c r="C246" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -11465,7 +11465,7 @@
         <v>966</v>
       </c>
       <c r="C247" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -11476,7 +11476,7 @@
         <v>748</v>
       </c>
       <c r="C248" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -11487,7 +11487,7 @@
         <v>1546</v>
       </c>
       <c r="C249" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -11498,7 +11498,7 @@
         <v>1243</v>
       </c>
       <c r="C250" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -11520,7 +11520,7 @@
         <v>1764</v>
       </c>
       <c r="C252" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -11561,15 +11561,15 @@
         <v>12</v>
       </c>
       <c r="B256" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C256" t="s">
         <v>2429</v>
-      </c>
-      <c r="C256" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B257" t="s">
         <v>1768</v>
@@ -11580,7 +11580,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B258" t="s">
         <v>821</v>
@@ -11597,10 +11597,10 @@
         <v>324</v>
       </c>
       <c r="C259" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D259" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E259" t="s">
         <v>1542</v>
@@ -11611,13 +11611,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B260" t="s">
         <v>95</v>
       </c>
       <c r="C260" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -11672,7 +11672,7 @@
         <v>1638</v>
       </c>
       <c r="C265" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -11716,7 +11716,7 @@
         <v>1076</v>
       </c>
       <c r="C269" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -11727,7 +11727,7 @@
         <v>1217</v>
       </c>
       <c r="C270" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -11738,7 +11738,7 @@
         <v>1293</v>
       </c>
       <c r="C271" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -11798,7 +11798,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B277" t="s">
         <v>1493</v>
@@ -11815,7 +11815,7 @@
         <v>724</v>
       </c>
       <c r="C278" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -11837,7 +11837,7 @@
         <v>1080</v>
       </c>
       <c r="C280" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -11848,7 +11848,7 @@
         <v>1274</v>
       </c>
       <c r="C281" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -11859,7 +11859,7 @@
         <v>1040</v>
       </c>
       <c r="C282" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -11870,7 +11870,7 @@
         <v>1740</v>
       </c>
       <c r="C283" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -11892,7 +11892,7 @@
         <v>1289</v>
       </c>
       <c r="C285" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -11914,7 +11914,7 @@
         <v>1303</v>
       </c>
       <c r="C287" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -11925,7 +11925,7 @@
         <v>1585</v>
       </c>
       <c r="C288" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -11936,7 +11936,7 @@
         <v>1448</v>
       </c>
       <c r="C289" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -11958,7 +11958,7 @@
         <v>287</v>
       </c>
       <c r="C291" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -11969,7 +11969,7 @@
         <v>1372</v>
       </c>
       <c r="C292" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -11980,7 +11980,7 @@
         <v>276</v>
       </c>
       <c r="C293" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -11991,7 +11991,7 @@
         <v>1245</v>
       </c>
       <c r="C294" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -12002,7 +12002,7 @@
         <v>700</v>
       </c>
       <c r="C295" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -12024,7 +12024,7 @@
         <v>1762</v>
       </c>
       <c r="C297" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -12068,7 +12068,7 @@
         <v>1501</v>
       </c>
       <c r="C301" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -12112,18 +12112,18 @@
         <v>1730</v>
       </c>
       <c r="C305" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B306" t="s">
         <v>844</v>
       </c>
       <c r="C306" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -12131,10 +12131,10 @@
         <v>468</v>
       </c>
       <c r="B307" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C307" t="s">
         <v>2596</v>
-      </c>
-      <c r="C307" t="s">
-        <v>2597</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -12178,7 +12178,7 @@
         <v>1204</v>
       </c>
       <c r="C311" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -12189,7 +12189,7 @@
         <v>1509</v>
       </c>
       <c r="C312" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -12200,7 +12200,7 @@
         <v>1476</v>
       </c>
       <c r="C313" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -12211,7 +12211,7 @@
         <v>1136</v>
       </c>
       <c r="C314" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -12233,7 +12233,7 @@
         <v>128</v>
       </c>
       <c r="C316" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -12255,7 +12255,7 @@
         <v>368</v>
       </c>
       <c r="C318" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -12288,7 +12288,7 @@
         <v>467</v>
       </c>
       <c r="C321" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -12299,7 +12299,7 @@
         <v>801</v>
       </c>
       <c r="C322" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -12321,7 +12321,7 @@
         <v>1796</v>
       </c>
       <c r="C324" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -12332,7 +12332,7 @@
         <v>614</v>
       </c>
       <c r="C325" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -12343,7 +12343,7 @@
         <v>1753</v>
       </c>
       <c r="C326" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -12420,7 +12420,7 @@
         <v>1550</v>
       </c>
       <c r="C333" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -12431,7 +12431,7 @@
         <v>1036</v>
       </c>
       <c r="C334" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -12453,7 +12453,7 @@
         <v>948</v>
       </c>
       <c r="C336" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -12464,7 +12464,7 @@
         <v>1800</v>
       </c>
       <c r="C337" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -12508,12 +12508,12 @@
         <v>887</v>
       </c>
       <c r="C341" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B342" t="s">
         <v>1575</v>
@@ -12563,7 +12563,7 @@
         <v>1564</v>
       </c>
       <c r="C346" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -12571,15 +12571,15 @@
         <v>1498</v>
       </c>
       <c r="B347" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C347" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B348" t="s">
         <v>1715</v>
@@ -12629,7 +12629,7 @@
         <v>296</v>
       </c>
       <c r="C352" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -12673,7 +12673,7 @@
         <v>294</v>
       </c>
       <c r="C356" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -12684,7 +12684,7 @@
         <v>846</v>
       </c>
       <c r="C357" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -12706,7 +12706,7 @@
         <v>320</v>
       </c>
       <c r="C359" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -12717,7 +12717,7 @@
         <v>940</v>
       </c>
       <c r="C360" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -12750,7 +12750,7 @@
         <v>790</v>
       </c>
       <c r="C363" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -12805,7 +12805,7 @@
         <v>916</v>
       </c>
       <c r="C368" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -12827,7 +12827,7 @@
         <v>1628</v>
       </c>
       <c r="C370" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -12849,7 +12849,7 @@
         <v>776</v>
       </c>
       <c r="C372" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -12871,7 +12871,7 @@
         <v>1554</v>
       </c>
       <c r="C374" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -12893,7 +12893,7 @@
         <v>1837</v>
       </c>
       <c r="C376" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -12904,7 +12904,7 @@
         <v>1721</v>
       </c>
       <c r="C377" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -12926,7 +12926,7 @@
         <v>1298</v>
       </c>
       <c r="C379" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -12937,7 +12937,7 @@
         <v>1774</v>
       </c>
       <c r="C380" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -12981,7 +12981,7 @@
         <v>718</v>
       </c>
       <c r="C384" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -13014,7 +13014,7 @@
         <v>1835</v>
       </c>
       <c r="C387" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -13025,7 +13025,7 @@
         <v>1511</v>
       </c>
       <c r="C388" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -13058,7 +13058,7 @@
         <v>924</v>
       </c>
       <c r="C391" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -13080,7 +13080,7 @@
         <v>823</v>
       </c>
       <c r="C393" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -13113,7 +13113,7 @@
         <v>978</v>
       </c>
       <c r="C396" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -13124,7 +13124,7 @@
         <v>1377</v>
       </c>
       <c r="C397" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -13135,7 +13135,7 @@
         <v>794</v>
       </c>
       <c r="C398" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -13168,7 +13168,7 @@
         <v>1140</v>
       </c>
       <c r="C401" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -13190,7 +13190,7 @@
         <v>918</v>
       </c>
       <c r="C403" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -13212,7 +13212,7 @@
         <v>843</v>
       </c>
       <c r="C405" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -13223,7 +13223,7 @@
         <v>990</v>
       </c>
       <c r="C406" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -13267,7 +13267,7 @@
         <v>720</v>
       </c>
       <c r="C410" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -13289,7 +13289,7 @@
         <v>630</v>
       </c>
       <c r="C412" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -13300,7 +13300,7 @@
         <v>1052</v>
       </c>
       <c r="C413" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -13322,7 +13322,7 @@
         <v>1215</v>
       </c>
       <c r="C415" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -13333,7 +13333,7 @@
         <v>1595</v>
       </c>
       <c r="C416" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -13355,7 +13355,7 @@
         <v>968</v>
       </c>
       <c r="C418" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -13366,7 +13366,7 @@
         <v>762</v>
       </c>
       <c r="C419" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -13410,7 +13410,7 @@
         <v>1006</v>
       </c>
       <c r="C423" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -13421,7 +13421,7 @@
         <v>1556</v>
       </c>
       <c r="C424" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -13454,7 +13454,7 @@
         <v>1018</v>
       </c>
       <c r="C427" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -13514,13 +13514,13 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B433" t="s">
         <v>525</v>
       </c>
       <c r="C433" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -13542,7 +13542,7 @@
         <v>252</v>
       </c>
       <c r="C435" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D435" t="s">
         <v>520</v>
@@ -13562,7 +13562,7 @@
         <v>521</v>
       </c>
       <c r="C436" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -13573,7 +13573,7 @@
         <v>1349</v>
       </c>
       <c r="C437" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -13617,7 +13617,7 @@
         <v>148</v>
       </c>
       <c r="C441" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -13639,7 +13639,7 @@
         <v>312</v>
       </c>
       <c r="C443" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -13683,7 +13683,7 @@
         <v>1401</v>
       </c>
       <c r="C447" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -13694,7 +13694,7 @@
         <v>740</v>
       </c>
       <c r="C448" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -13716,7 +13716,7 @@
         <v>1523</v>
       </c>
       <c r="C450" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -13738,7 +13738,7 @@
         <v>444</v>
       </c>
       <c r="C452" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -13793,7 +13793,7 @@
         <v>938</v>
       </c>
       <c r="C457" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -13804,7 +13804,7 @@
         <v>1330</v>
       </c>
       <c r="C458" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -13815,7 +13815,7 @@
         <v>1468</v>
       </c>
       <c r="C459" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -13837,7 +13837,7 @@
         <v>958</v>
       </c>
       <c r="C461" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -13848,7 +13848,7 @@
         <v>334</v>
       </c>
       <c r="C462" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -13881,7 +13881,7 @@
         <v>1779</v>
       </c>
       <c r="C465" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -13903,7 +13903,7 @@
         <v>996</v>
       </c>
       <c r="C467" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -13925,7 +13925,7 @@
         <v>1336</v>
       </c>
       <c r="C469" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -13947,7 +13947,7 @@
         <v>238</v>
       </c>
       <c r="C471" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -13974,13 +13974,13 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B474" t="s">
         <v>1697</v>
       </c>
       <c r="C474" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -14035,7 +14035,7 @@
         <v>296</v>
       </c>
       <c r="C479" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -14079,7 +14079,7 @@
         <v>1200</v>
       </c>
       <c r="C483" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -14112,7 +14112,7 @@
         <v>1379</v>
       </c>
       <c r="C486" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -14137,13 +14137,13 @@
         <v>2162</v>
       </c>
       <c r="D488" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E488" t="s">
         <v>471</v>
       </c>
       <c r="F488" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -14154,7 +14154,7 @@
         <v>1038</v>
       </c>
       <c r="C489" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -14165,7 +14165,7 @@
         <v>1056</v>
       </c>
       <c r="C490" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -14187,10 +14187,10 @@
         <v>281</v>
       </c>
       <c r="C492" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D492" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E492" t="s">
         <v>85</v>
@@ -14207,7 +14207,7 @@
         <v>1265</v>
       </c>
       <c r="C493" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -14238,7 +14238,7 @@
         <v>1808</v>
       </c>
       <c r="C495" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -14282,7 +14282,7 @@
         <v>1791</v>
       </c>
       <c r="C499" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -14293,7 +14293,7 @@
         <v>214</v>
       </c>
       <c r="C500" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -14315,7 +14315,7 @@
         <v>1472</v>
       </c>
       <c r="C502" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -14326,7 +14326,7 @@
         <v>1373</v>
       </c>
       <c r="C503" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -14337,7 +14337,7 @@
         <v>1140</v>
       </c>
       <c r="C504" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -14386,16 +14386,16 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B509" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C509" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D509" t="s">
         <v>2461</v>
-      </c>
-      <c r="B509" t="s">
-        <v>2463</v>
-      </c>
-      <c r="C509" t="s">
-        <v>2464</v>
-      </c>
-      <c r="D509" t="s">
-        <v>2462</v>
       </c>
       <c r="E509" t="s">
         <v>97</v>
@@ -14412,7 +14412,7 @@
         <v>230</v>
       </c>
       <c r="C510" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -14423,7 +14423,7 @@
         <v>866</v>
       </c>
       <c r="C511" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -14434,7 +14434,7 @@
         <v>1074</v>
       </c>
       <c r="C512" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -14456,7 +14456,7 @@
         <v>1044</v>
       </c>
       <c r="C514" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -14478,7 +14478,7 @@
         <v>626</v>
       </c>
       <c r="C516" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -14489,7 +14489,7 @@
         <v>903</v>
       </c>
       <c r="C517" s="6" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -14522,7 +14522,7 @@
         <v>829</v>
       </c>
       <c r="C520" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -14544,7 +14544,7 @@
         <v>204</v>
       </c>
       <c r="C522" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -14555,7 +14555,7 @@
         <v>324</v>
       </c>
       <c r="C523" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -14577,7 +14577,7 @@
         <v>1528</v>
       </c>
       <c r="C525" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -14588,16 +14588,16 @@
         <v>338</v>
       </c>
       <c r="C526" t="s">
-        <v>2175</v>
+        <v>2602</v>
       </c>
       <c r="D526" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E526" t="s">
         <v>112</v>
       </c>
       <c r="F526" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -14608,7 +14608,7 @@
         <v>885</v>
       </c>
       <c r="C527" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -14630,7 +14630,7 @@
         <v>594</v>
       </c>
       <c r="C529" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -14652,16 +14652,16 @@
         <v>379</v>
       </c>
       <c r="C531" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D531" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E531" t="s">
         <v>176</v>
       </c>
       <c r="F531" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -14672,7 +14672,7 @@
         <v>570</v>
       </c>
       <c r="C532" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -14683,7 +14683,7 @@
         <v>1240</v>
       </c>
       <c r="C533" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -14694,7 +14694,7 @@
         <v>1651</v>
       </c>
       <c r="C534" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -14705,7 +14705,7 @@
         <v>126</v>
       </c>
       <c r="C535" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -14716,7 +14716,7 @@
         <v>1403</v>
       </c>
       <c r="C536" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -14727,7 +14727,7 @@
         <v>166</v>
       </c>
       <c r="C537" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -14771,7 +14771,7 @@
         <v>375</v>
       </c>
       <c r="C541" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -14782,7 +14782,7 @@
         <v>158</v>
       </c>
       <c r="C542" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -14804,7 +14804,7 @@
         <v>728</v>
       </c>
       <c r="C544" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -14815,7 +14815,7 @@
         <v>108</v>
       </c>
       <c r="C545" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -14826,7 +14826,7 @@
         <v>174</v>
       </c>
       <c r="C546" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -14837,7 +14837,7 @@
         <v>1668</v>
       </c>
       <c r="C547" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -14848,7 +14848,7 @@
         <v>1689</v>
       </c>
       <c r="C548" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -14870,7 +14870,7 @@
         <v>835</v>
       </c>
       <c r="C550" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -14914,18 +14914,18 @@
         <v>1607</v>
       </c>
       <c r="C554" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B555" t="s">
         <v>306</v>
       </c>
       <c r="C555" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -14936,7 +14936,7 @@
         <v>1566</v>
       </c>
       <c r="C556" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -14947,7 +14947,7 @@
         <v>346</v>
       </c>
       <c r="C557" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -14958,7 +14958,7 @@
         <v>652</v>
       </c>
       <c r="C558" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -14969,7 +14969,7 @@
         <v>1106</v>
       </c>
       <c r="C559" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -14980,7 +14980,7 @@
         <v>1430</v>
       </c>
       <c r="C560" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -14991,7 +14991,7 @@
         <v>1722</v>
       </c>
       <c r="C561" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -15013,7 +15013,7 @@
         <v>644</v>
       </c>
       <c r="C563" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
@@ -15024,7 +15024,7 @@
         <v>560</v>
       </c>
       <c r="C564" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
@@ -15046,7 +15046,7 @@
         <v>304</v>
       </c>
       <c r="C566" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
@@ -15057,7 +15057,7 @@
         <v>178</v>
       </c>
       <c r="C567" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -15076,19 +15076,19 @@
         <v>51</v>
       </c>
       <c r="B569" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C569" t="s">
         <v>2472</v>
       </c>
-      <c r="C569" t="s">
+      <c r="D569" t="s">
         <v>2473</v>
-      </c>
-      <c r="D569" t="s">
-        <v>2474</v>
       </c>
       <c r="E569" t="s">
         <v>1226</v>
       </c>
       <c r="F569" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -15099,7 +15099,7 @@
         <v>982</v>
       </c>
       <c r="C570" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
@@ -15132,7 +15132,7 @@
         <v>797</v>
       </c>
       <c r="C573" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
@@ -15154,7 +15154,7 @@
         <v>383</v>
       </c>
       <c r="C575" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
@@ -15165,7 +15165,7 @@
         <v>592</v>
       </c>
       <c r="C576" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -15187,7 +15187,7 @@
         <v>505</v>
       </c>
       <c r="C578" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -15198,7 +15198,7 @@
         <v>712</v>
       </c>
       <c r="C579" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -15209,7 +15209,7 @@
         <v>1301</v>
       </c>
       <c r="C580" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -15220,7 +15220,7 @@
         <v>1418</v>
       </c>
       <c r="C581" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -15231,7 +15231,7 @@
         <v>1118</v>
       </c>
       <c r="C582" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -15242,7 +15242,7 @@
         <v>1432</v>
       </c>
       <c r="C583" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -15264,7 +15264,7 @@
         <v>1751</v>
       </c>
       <c r="C585" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -15286,7 +15286,7 @@
         <v>648</v>
       </c>
       <c r="C587" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -15297,7 +15297,7 @@
         <v>1460</v>
       </c>
       <c r="C588" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -15308,7 +15308,7 @@
         <v>1156</v>
       </c>
       <c r="C589" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -15341,7 +15341,7 @@
         <v>807</v>
       </c>
       <c r="C592" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -15352,7 +15352,7 @@
         <v>1282</v>
       </c>
       <c r="C593" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -15363,7 +15363,7 @@
         <v>1352</v>
       </c>
       <c r="C594" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -15374,7 +15374,7 @@
         <v>1577</v>
       </c>
       <c r="C595" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -15407,7 +15407,7 @@
         <v>1134</v>
       </c>
       <c r="C598" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -15418,7 +15418,7 @@
         <v>710</v>
       </c>
       <c r="C599" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -15429,7 +15429,7 @@
         <v>864</v>
       </c>
       <c r="C600" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -15440,7 +15440,7 @@
         <v>920</v>
       </c>
       <c r="C601" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -15451,7 +15451,7 @@
         <v>864</v>
       </c>
       <c r="C602" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -15462,7 +15462,7 @@
         <v>658</v>
       </c>
       <c r="C603" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -15473,7 +15473,7 @@
         <v>1060</v>
       </c>
       <c r="C604" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -15484,7 +15484,7 @@
         <v>210</v>
       </c>
       <c r="C605" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -15517,7 +15517,7 @@
         <v>91</v>
       </c>
       <c r="C608" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -15528,7 +15528,7 @@
         <v>1257</v>
       </c>
       <c r="C609" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -15539,7 +15539,7 @@
         <v>1167</v>
       </c>
       <c r="C610" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -15550,7 +15550,7 @@
         <v>182</v>
       </c>
       <c r="C611" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -15561,7 +15561,7 @@
         <v>907</v>
       </c>
       <c r="C612" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -15583,7 +15583,7 @@
         <v>708</v>
       </c>
       <c r="C614" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -15594,7 +15594,7 @@
         <v>118</v>
       </c>
       <c r="C615" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -15616,7 +15616,7 @@
         <v>876</v>
       </c>
       <c r="C617" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -15627,7 +15627,7 @@
         <v>342</v>
       </c>
       <c r="C618" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -15638,7 +15638,7 @@
         <v>1573</v>
       </c>
       <c r="C619" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -15649,7 +15649,7 @@
         <v>114</v>
       </c>
       <c r="C620" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -15660,7 +15660,7 @@
         <v>1100</v>
       </c>
       <c r="C621" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -15671,7 +15671,7 @@
         <v>1405</v>
       </c>
       <c r="C622" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -15682,7 +15682,7 @@
         <v>360</v>
       </c>
       <c r="C623" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -15693,7 +15693,7 @@
         <v>1620</v>
       </c>
       <c r="C624" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -15704,7 +15704,7 @@
         <v>77</v>
       </c>
       <c r="C625" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -15715,7 +15715,7 @@
         <v>1738</v>
       </c>
       <c r="C626" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -15726,7 +15726,7 @@
         <v>1708</v>
       </c>
       <c r="C627" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -15737,7 +15737,7 @@
         <v>688</v>
       </c>
       <c r="C628" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -15748,7 +15748,7 @@
         <v>1084</v>
       </c>
       <c r="C629" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -15770,7 +15770,7 @@
         <v>503</v>
       </c>
       <c r="C631" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -15781,7 +15781,7 @@
         <v>972</v>
       </c>
       <c r="C632" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -15792,7 +15792,7 @@
         <v>1375</v>
       </c>
       <c r="C633" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -15803,7 +15803,7 @@
         <v>568</v>
       </c>
       <c r="C634" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -15847,7 +15847,7 @@
         <v>883</v>
       </c>
       <c r="C638" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -15880,7 +15880,7 @@
         <v>992</v>
       </c>
       <c r="C641" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -15891,7 +15891,7 @@
         <v>1376</v>
       </c>
       <c r="C642" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -15913,7 +15913,7 @@
         <v>81</v>
       </c>
       <c r="C644" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -15935,7 +15935,7 @@
         <v>501</v>
       </c>
       <c r="C646" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -15946,7 +15946,7 @@
         <v>1064</v>
       </c>
       <c r="C647" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -15968,7 +15968,7 @@
         <v>964</v>
       </c>
       <c r="C649" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -15987,10 +15987,10 @@
         <v>1019</v>
       </c>
       <c r="B651" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C651" t="s">
         <v>2475</v>
-      </c>
-      <c r="C651" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -16001,7 +16001,7 @@
         <v>1295</v>
       </c>
       <c r="C652" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -16023,7 +16023,7 @@
         <v>110</v>
       </c>
       <c r="C654" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -16034,7 +16034,7 @@
         <v>1394</v>
       </c>
       <c r="C655" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -16045,7 +16045,7 @@
         <v>254</v>
       </c>
       <c r="C656" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -16067,7 +16067,7 @@
         <v>1248</v>
       </c>
       <c r="C658" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -16078,7 +16078,7 @@
         <v>942</v>
       </c>
       <c r="C659" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -16089,7 +16089,7 @@
         <v>770</v>
       </c>
       <c r="C660" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -16100,7 +16100,7 @@
         <v>1351</v>
       </c>
       <c r="C661" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -16111,7 +16111,7 @@
         <v>1599</v>
       </c>
       <c r="C662" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -16122,7 +16122,7 @@
         <v>1666</v>
       </c>
       <c r="C663" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -16133,7 +16133,7 @@
         <v>780</v>
       </c>
       <c r="C664" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -16144,7 +16144,7 @@
         <v>1783</v>
       </c>
       <c r="C665" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -16155,7 +16155,7 @@
         <v>1296</v>
       </c>
       <c r="C666" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -16166,7 +16166,7 @@
         <v>254</v>
       </c>
       <c r="C667" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -16177,7 +16177,7 @@
         <v>1030</v>
       </c>
       <c r="C668" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -16188,7 +16188,7 @@
         <v>1544</v>
       </c>
       <c r="C669" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -16199,7 +16199,7 @@
         <v>1775</v>
       </c>
       <c r="C670" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -16210,7 +16210,7 @@
         <v>839</v>
       </c>
       <c r="C671" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -16221,7 +16221,7 @@
         <v>240</v>
       </c>
       <c r="C672" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -16232,7 +16232,7 @@
         <v>1016</v>
       </c>
       <c r="C673" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -16243,7 +16243,7 @@
         <v>860</v>
       </c>
       <c r="C674" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -16265,7 +16265,7 @@
         <v>960</v>
       </c>
       <c r="C676" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -16276,7 +16276,7 @@
         <v>690</v>
       </c>
       <c r="C677" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -16298,7 +16298,7 @@
         <v>1570</v>
       </c>
       <c r="C679" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -16309,7 +16309,7 @@
         <v>1441</v>
       </c>
       <c r="C680" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -16320,7 +16320,7 @@
         <v>582</v>
       </c>
       <c r="C681" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -16342,7 +16342,7 @@
         <v>1179</v>
       </c>
       <c r="C683" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -16364,7 +16364,7 @@
         <v>1357</v>
       </c>
       <c r="C685" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -16375,7 +16375,7 @@
         <v>1410</v>
       </c>
       <c r="C686" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -16397,7 +16397,7 @@
         <v>556</v>
       </c>
       <c r="C688" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -16419,7 +16419,7 @@
         <v>1213</v>
       </c>
       <c r="C690" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -16441,7 +16441,7 @@
         <v>1843</v>
       </c>
       <c r="C692" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -16452,7 +16452,7 @@
         <v>1771</v>
       </c>
       <c r="C693" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -16463,7 +16463,7 @@
         <v>1766</v>
       </c>
       <c r="C694" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -16474,7 +16474,7 @@
         <v>104</v>
       </c>
       <c r="C695" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -16485,7 +16485,7 @@
         <v>416</v>
       </c>
       <c r="C696" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -16496,7 +16496,7 @@
         <v>881</v>
       </c>
       <c r="C697" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -16507,7 +16507,7 @@
         <v>459</v>
       </c>
       <c r="C698" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -16529,7 +16529,7 @@
         <v>1489</v>
       </c>
       <c r="C700" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -16540,12 +16540,12 @@
         <v>1062</v>
       </c>
       <c r="C701" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B702" t="s">
         <v>422</v>
@@ -16562,7 +16562,7 @@
         <v>1851</v>
       </c>
       <c r="C703" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -16573,18 +16573,18 @@
         <v>1198</v>
       </c>
       <c r="C704" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B705" t="s">
         <v>924</v>
       </c>
       <c r="C705" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -16595,7 +16595,7 @@
         <v>837</v>
       </c>
       <c r="C706" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -16606,7 +16606,7 @@
         <v>803</v>
       </c>
       <c r="C707" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
@@ -16628,7 +16628,7 @@
         <v>974</v>
       </c>
       <c r="C709" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -16650,7 +16650,7 @@
         <v>895</v>
       </c>
       <c r="C711" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
@@ -16683,7 +16683,7 @@
         <v>954</v>
       </c>
       <c r="C714" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
@@ -16694,7 +16694,7 @@
         <v>1060</v>
       </c>
       <c r="C715" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -16705,7 +16705,7 @@
         <v>130</v>
       </c>
       <c r="C716" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -16727,7 +16727,7 @@
         <v>784</v>
       </c>
       <c r="C718" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -16749,18 +16749,18 @@
         <v>620</v>
       </c>
       <c r="C720" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B721" t="s">
         <v>831</v>
       </c>
       <c r="C721" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -16771,7 +16771,7 @@
         <v>704</v>
       </c>
       <c r="C722" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -16782,7 +16782,7 @@
         <v>1253</v>
       </c>
       <c r="C723" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
@@ -16804,7 +16804,7 @@
         <v>1437</v>
       </c>
       <c r="C725" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -16815,7 +16815,7 @@
         <v>1439</v>
       </c>
       <c r="C726" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
@@ -16826,7 +16826,7 @@
         <v>493</v>
       </c>
       <c r="C727" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
@@ -16837,7 +16837,7 @@
         <v>576</v>
       </c>
       <c r="C728" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -16848,7 +16848,7 @@
         <v>596</v>
       </c>
       <c r="C729" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
@@ -16859,7 +16859,7 @@
         <v>1611</v>
       </c>
       <c r="C730" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -16870,7 +16870,7 @@
         <v>1366</v>
       </c>
       <c r="C731" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
@@ -16881,7 +16881,7 @@
         <v>1130</v>
       </c>
       <c r="C732" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -16892,7 +16892,7 @@
         <v>1821</v>
       </c>
       <c r="C733" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
@@ -16903,7 +16903,7 @@
         <v>825</v>
       </c>
       <c r="C734" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
@@ -16914,7 +16914,7 @@
         <v>844</v>
       </c>
       <c r="C735" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
@@ -16925,7 +16925,7 @@
         <v>1124</v>
       </c>
       <c r="C736" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -16936,7 +16936,7 @@
         <v>316</v>
       </c>
       <c r="C737" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -16947,7 +16947,7 @@
         <v>634</v>
       </c>
       <c r="C738" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -16958,7 +16958,7 @@
         <v>870</v>
       </c>
       <c r="C739" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
@@ -16969,7 +16969,7 @@
         <v>336</v>
       </c>
       <c r="C740" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -16980,7 +16980,7 @@
         <v>200</v>
       </c>
       <c r="C741" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -16991,7 +16991,7 @@
         <v>678</v>
       </c>
       <c r="C742" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -17002,7 +17002,7 @@
         <v>1342</v>
       </c>
       <c r="C743" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -17013,7 +17013,7 @@
         <v>1806</v>
       </c>
       <c r="C744" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
@@ -17035,7 +17035,7 @@
         <v>1518</v>
       </c>
       <c r="C746" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -17057,7 +17057,7 @@
         <v>438</v>
       </c>
       <c r="C748" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -17079,7 +17079,7 @@
         <v>805</v>
       </c>
       <c r="C750" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -17090,18 +17090,18 @@
         <v>1224</v>
       </c>
       <c r="C751" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B752" t="s">
         <v>1513</v>
       </c>
       <c r="C752" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
@@ -17123,7 +17123,7 @@
         <v>1149</v>
       </c>
       <c r="C754" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -17145,7 +17145,7 @@
         <v>134</v>
       </c>
       <c r="C756" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
@@ -17167,7 +17167,7 @@
         <v>354</v>
       </c>
       <c r="C758" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
@@ -17178,7 +17178,7 @@
         <v>122</v>
       </c>
       <c r="C759" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
@@ -17200,7 +17200,7 @@
         <v>1614</v>
       </c>
       <c r="C761" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -17211,7 +17211,7 @@
         <v>1597</v>
       </c>
       <c r="C762" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -17233,7 +17233,7 @@
         <v>1802</v>
       </c>
       <c r="C764" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -17244,7 +17244,7 @@
         <v>930</v>
       </c>
       <c r="C765" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -17255,7 +17255,7 @@
         <v>893</v>
       </c>
       <c r="C766" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -17266,7 +17266,7 @@
         <v>1414</v>
       </c>
       <c r="C767" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -17277,7 +17277,7 @@
         <v>1710</v>
       </c>
       <c r="C768" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -17288,7 +17288,7 @@
         <v>218</v>
       </c>
       <c r="C769" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -17299,7 +17299,7 @@
         <v>640</v>
       </c>
       <c r="C770" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
@@ -17310,7 +17310,7 @@
         <v>1422</v>
       </c>
       <c r="C771" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -17321,7 +17321,7 @@
         <v>694</v>
       </c>
       <c r="C772" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
@@ -17332,7 +17332,7 @@
         <v>668</v>
       </c>
       <c r="C773" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
@@ -17343,7 +17343,7 @@
         <v>1238</v>
       </c>
       <c r="C774" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
@@ -17354,7 +17354,7 @@
         <v>1554</v>
       </c>
       <c r="C775" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
@@ -17376,7 +17376,7 @@
         <v>1008</v>
       </c>
       <c r="C777" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -17387,7 +17387,7 @@
         <v>289</v>
       </c>
       <c r="C778" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
@@ -17409,7 +17409,7 @@
         <v>89</v>
       </c>
       <c r="C780" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -17420,7 +17420,7 @@
         <v>1202</v>
       </c>
       <c r="C781" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
@@ -17431,7 +17431,7 @@
         <v>934</v>
       </c>
       <c r="C782" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
@@ -17442,7 +17442,7 @@
         <v>1072</v>
       </c>
       <c r="C783" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
@@ -17464,7 +17464,7 @@
         <v>537</v>
       </c>
       <c r="C785" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
@@ -17475,7 +17475,7 @@
         <v>600</v>
       </c>
       <c r="C786" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
@@ -17486,7 +17486,7 @@
         <v>1761</v>
       </c>
       <c r="C787" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
@@ -17497,18 +17497,18 @@
         <v>1183</v>
       </c>
       <c r="C788" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B789" t="s">
         <v>180</v>
       </c>
       <c r="C789" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
@@ -17530,18 +17530,18 @@
         <v>1849</v>
       </c>
       <c r="C791" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B792" t="s">
         <v>1841</v>
       </c>
       <c r="C792" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
@@ -17563,7 +17563,7 @@
         <v>1363</v>
       </c>
       <c r="C794" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
@@ -17574,7 +17574,7 @@
         <v>1819</v>
       </c>
       <c r="C795" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
@@ -17618,7 +17618,7 @@
         <v>574</v>
       </c>
       <c r="C799" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
@@ -17629,7 +17629,7 @@
         <v>656</v>
       </c>
       <c r="C800" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.3">
@@ -17640,7 +17640,7 @@
         <v>813</v>
       </c>
       <c r="C801" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.3">
@@ -17651,7 +17651,7 @@
         <v>1086</v>
       </c>
       <c r="C802" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.3">
@@ -17662,7 +17662,7 @@
         <v>1579</v>
       </c>
       <c r="C803" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.3">
@@ -17673,7 +17673,7 @@
         <v>136</v>
       </c>
       <c r="C804" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.3">
@@ -17684,7 +17684,7 @@
         <v>909</v>
       </c>
       <c r="C805" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.3">
@@ -17695,7 +17695,7 @@
         <v>475</v>
       </c>
       <c r="C806" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.3">
@@ -17717,7 +17717,7 @@
         <v>1338</v>
       </c>
       <c r="C808" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.3">
@@ -17728,7 +17728,7 @@
         <v>1428</v>
       </c>
       <c r="C809" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.3">
@@ -17739,7 +17739,7 @@
         <v>1358</v>
       </c>
       <c r="C810" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.3">
@@ -17772,7 +17772,7 @@
         <v>1474</v>
       </c>
       <c r="C813" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.3">
@@ -17794,16 +17794,16 @@
         <v>1026</v>
       </c>
       <c r="C815" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D815" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E815" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F815" t="s">
         <v>2601</v>
-      </c>
-      <c r="F815" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.3">
@@ -17814,7 +17814,7 @@
         <v>463</v>
       </c>
       <c r="C816" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.3">
@@ -17825,7 +17825,7 @@
         <v>431</v>
       </c>
       <c r="C817" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.3">
@@ -17836,7 +17836,7 @@
         <v>1444</v>
       </c>
       <c r="C818" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.3">
@@ -17858,7 +17858,7 @@
         <v>988</v>
       </c>
       <c r="C820" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.3">
@@ -17869,7 +17869,7 @@
         <v>799</v>
       </c>
       <c r="C821" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.3">
@@ -17880,7 +17880,7 @@
         <v>1530</v>
       </c>
       <c r="C822" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D822" t="s">
         <v>1359</v>
@@ -17889,7 +17889,7 @@
         <v>170</v>
       </c>
       <c r="F822" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.3">
@@ -17922,7 +17922,7 @@
         <v>702</v>
       </c>
       <c r="C825" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.3">
@@ -17930,10 +17930,10 @@
         <v>849</v>
       </c>
       <c r="B826" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C826" t="s">
         <v>2544</v>
-      </c>
-      <c r="C826" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.3">
@@ -17944,7 +17944,7 @@
         <v>976</v>
       </c>
       <c r="C827" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.3">
@@ -17966,7 +17966,7 @@
         <v>1481</v>
       </c>
       <c r="C829" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.3">
@@ -17977,7 +17977,7 @@
         <v>654</v>
       </c>
       <c r="C830" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.3">
@@ -17999,7 +17999,7 @@
         <v>1267</v>
       </c>
       <c r="C832" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.3">
@@ -18010,7 +18010,7 @@
         <v>1032</v>
       </c>
       <c r="C833" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.3">
@@ -18021,7 +18021,7 @@
         <v>1673</v>
       </c>
       <c r="C834" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.3">
@@ -18043,7 +18043,7 @@
         <v>196</v>
       </c>
       <c r="C836" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.3">
@@ -18054,7 +18054,7 @@
         <v>1068</v>
       </c>
       <c r="C837" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.3">
@@ -18065,7 +18065,7 @@
         <v>672</v>
       </c>
       <c r="C838" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.3">
@@ -18076,7 +18076,7 @@
         <v>786</v>
       </c>
       <c r="C839" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.3">
@@ -18087,7 +18087,7 @@
         <v>1736</v>
       </c>
       <c r="C840" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.3">
@@ -18109,16 +18109,16 @@
         <v>1416</v>
       </c>
       <c r="C842" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D842" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E842" t="s">
         <v>650</v>
       </c>
       <c r="F842" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.3">
@@ -18129,7 +18129,7 @@
         <v>1313</v>
       </c>
       <c r="C843" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.3">
@@ -18140,7 +18140,7 @@
         <v>1717</v>
       </c>
       <c r="C844" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.3">
@@ -18151,7 +18151,7 @@
         <v>1622</v>
       </c>
       <c r="C845" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.3">
@@ -18162,7 +18162,7 @@
         <v>1090</v>
       </c>
       <c r="C846" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.3">
@@ -18173,7 +18173,7 @@
         <v>1090</v>
       </c>
       <c r="C847" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.3">
@@ -18184,7 +18184,7 @@
         <v>1259</v>
       </c>
       <c r="C848" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.3">
@@ -18195,7 +18195,7 @@
         <v>1187</v>
       </c>
       <c r="C849" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
   </sheetData>
